--- a/BloodstreamAPI/testData/donationInfo.xlsx
+++ b/BloodstreamAPI/testData/donationInfo.xlsx
@@ -3,16 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{7C11CAAE-1308-4E8E-B2B2-5C00E048DE81}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{1F6D8F7C-D273-4506-8BA5-750F06DE53E7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13830" windowHeight="9585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13395" windowHeight="9585" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="donations" sheetId="2" r:id="rId1"/>
     <sheet name="donationShortDetail" sheetId="3" r:id="rId2"/>
+    <sheet name="groupStatusCount" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:K28"/>
+  <oleSize ref="A1:M29"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="17">
   <si>
     <t>GroupStatus</t>
   </si>
@@ -70,6 +71,9 @@
   </si>
   <si>
     <t>AA0001-2020042</t>
+  </si>
+  <si>
+    <t>/donationInfo/groupStatusCount</t>
   </si>
 </sst>
 </file>
@@ -158,11 +162,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="40% - Accent3" xfId="1" builtinId="39"/>
@@ -474,13 +478,13 @@
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -518,13 +522,13 @@
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -562,13 +566,13 @@
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
@@ -626,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDA324F4-6303-45A9-B72B-667907D5EA0F}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,13 +642,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -667,7 +671,7 @@
       <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="4"/>
@@ -684,13 +688,13 @@
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
@@ -730,13 +734,13 @@
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
@@ -777,4 +781,113 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28A8DE7-7690-40F2-B6C7-91F96B21F039}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A9:E9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/BloodstreamAPI/testData/donationInfo.xlsx
+++ b/BloodstreamAPI/testData/donationInfo.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{1F6D8F7C-D273-4506-8BA5-750F06DE53E7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C469FDB0-D9D9-4BA3-B1D0-E49DCD764EB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13395" windowHeight="9585" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="13440" windowHeight="11060" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="donations" sheetId="2" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="groupStatusCount" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:M29"/>
+  <oleSize ref="A1:K18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -455,29 +455,29 @@
       <selection activeCell="A3" sqref="A3:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="26.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.26953125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>7</v>
       </c>
@@ -486,7 +486,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -503,7 +503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -514,14 +514,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>9</v>
       </c>
@@ -530,7 +530,7 @@
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
@@ -547,7 +547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -558,14 +558,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
         <v>10</v>
       </c>
@@ -574,7 +574,7 @@
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
     </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>0</v>
       </c>
@@ -591,7 +591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>4</v>
       </c>
@@ -602,19 +602,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A3:E3"/>
@@ -630,18 +630,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDA324F4-6303-45A9-B72B-667907D5EA0F}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>7</v>
       </c>
@@ -650,7 +650,7 @@
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>11</v>
       </c>
@@ -667,7 +667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
@@ -680,14 +680,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>9</v>
       </c>
@@ -696,7 +696,7 @@
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>11</v>
       </c>
@@ -713,12 +713,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -726,14 +726,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
         <v>10</v>
       </c>
@@ -742,7 +742,7 @@
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>11</v>
       </c>
@@ -759,7 +759,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
@@ -787,13 +787,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28A8DE7-7690-40F2-B6C7-91F96B21F039}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>7</v>
       </c>
@@ -802,7 +802,7 @@
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="3"/>
@@ -811,7 +811,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="9"/>
       <c r="C3" s="4"/>
@@ -820,42 +820,42 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
         <v>10</v>
       </c>
@@ -864,7 +864,7 @@
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="3"/>
@@ -873,7 +873,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>

--- a/BloodstreamAPI/testData/donationInfo.xlsx
+++ b/BloodstreamAPI/testData/donationInfo.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C469FDB0-D9D9-4BA3-B1D0-E49DCD764EB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{F8E5483A-AFBB-43E8-BC09-AE67B299805F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="13440" windowHeight="11060" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="13520" windowHeight="11060" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="donations" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="19">
   <si>
     <t>GroupStatus</t>
   </si>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t>/donationInfo/groupStatusCount</t>
+  </si>
+  <si>
+    <t>PPPAD</t>
+  </si>
+  <si>
+    <t>dsadasda</t>
   </si>
 </sst>
 </file>
@@ -715,10 +721,10 @@
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>

--- a/BloodstreamAPI/testData/donationInfo.xlsx
+++ b/BloodstreamAPI/testData/donationInfo.xlsx
@@ -3,17 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{1F6D8F7C-D273-4506-8BA5-750F06DE53E7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C83A2452-EFCE-4692-B371-38C670B8E632}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13395" windowHeight="9585" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12330" windowHeight="9585" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="donations" sheetId="2" r:id="rId1"/>
     <sheet name="donationShortDetail" sheetId="3" r:id="rId2"/>
     <sheet name="groupStatusCount" sheetId="4" r:id="rId3"/>
+    <sheet name="orderTests" sheetId="5" r:id="rId4"/>
+    <sheet name="orderTestsStatusHistory" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:M29"/>
+  <oleSize ref="A1:L29"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="20">
   <si>
     <t>GroupStatus</t>
   </si>
@@ -74,6 +76,15 @@
   </si>
   <si>
     <t>/donationInfo/groupStatusCount</t>
+  </si>
+  <si>
+    <t>/donationInfo/orderTests</t>
+  </si>
+  <si>
+    <t>AA1</t>
+  </si>
+  <si>
+    <t>/donationInfo/orderTestStatusHistory</t>
   </si>
 </sst>
 </file>
@@ -631,7 +642,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E11"/>
+      <selection activeCell="E11" sqref="A1:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -787,7 +798,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28A8DE7-7690-40F2-B6C7-91F96B21F039}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -880,6 +891,308 @@
       <c r="D11" s="4"/>
       <c r="E11" s="7" t="s">
         <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A9:E9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC63ECD6-8FDB-4F3A-A1DD-55CBC02E3453}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A9:E9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14AB8C18-7D1C-4165-AD12-23B7B851E3F3}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/BloodstreamAPI/testData/donationInfo.xlsx
+++ b/BloodstreamAPI/testData/donationInfo.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0A3F40-D230-4743-9656-639BA0AEF00A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A37DF0-D313-444C-BA5B-2105C687C9B5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2415" yWindow="2415" windowWidth="14400" windowHeight="7815" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12330" windowHeight="9585" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="donations" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="18">
   <si>
     <t>GroupStatus</t>
   </si>
@@ -66,6 +66,18 @@
   </si>
   <si>
     <t>/donationInfo/orderTestStatusHistory</t>
+  </si>
+  <si>
+    <t>donationId</t>
+  </si>
+  <si>
+    <t>requestId</t>
+  </si>
+  <si>
+    <t>ads</t>
+  </si>
+  <si>
+    <t>as</t>
   </si>
 </sst>
 </file>
@@ -122,14 +134,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -143,6 +151,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -443,127 +458,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="5" t="s">
+      <c r="A3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="5"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="6" t="s">
+      <c r="D6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="5" t="s">
+      <c r="A7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="5"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="6" t="s">
+      <c r="D10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="5" t="s">
+      <c r="A11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -583,7 +598,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD11"/>
+      <selection activeCell="B6" sqref="B6:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,132 +609,140 @@
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" spans="1:5" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="5" t="s">
+      <c r="D10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
@@ -735,7 +758,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD9"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,91 +766,91 @@
     <col min="5" max="5" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" spans="1:5" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="5" t="s">
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="5" t="s">
+      <c r="D7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -842,10 +865,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C811778-8EB8-4977-B591-A8DE6C0B55D6}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="B2" sqref="B2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -853,99 +876,141 @@
     <col min="5" max="5" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" spans="1:5" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="5" t="s">
+      <c r="D7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="6" t="s">
+    <row r="9" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="5" t="s">
+      <c r="D11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A10:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -956,7 +1021,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="B2" sqref="B2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -964,128 +1029,132 @@
     <col min="5" max="5" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" spans="1:5" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="5" t="s">
+      <c r="D6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="6" t="s">
+    <row r="8" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="5" t="s">
+      <c r="D10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="4" t="s">
         <v>13</v>
       </c>
     </row>

--- a/BloodstreamAPI/testData/donationInfo.xlsx
+++ b/BloodstreamAPI/testData/donationInfo.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A37DF0-D313-444C-BA5B-2105C687C9B5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{5350874A-2530-42FD-8F0A-5D03FA030E9C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12330" windowHeight="9585" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14640" windowHeight="9585" tabRatio="741" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="donations" sheetId="2" r:id="rId1"/>
@@ -13,8 +13,11 @@
     <sheet name="groupStatusCount" sheetId="4" r:id="rId3"/>
     <sheet name="orderTests" sheetId="5" r:id="rId4"/>
     <sheet name="orderTestsStatusHistory" sheetId="6" r:id="rId5"/>
+    <sheet name="getgridLayout" sheetId="7" r:id="rId6"/>
+    <sheet name="putgridLayout" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:N29"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="23">
   <si>
     <t>GroupStatus</t>
   </si>
@@ -78,6 +81,73 @@
   </si>
   <si>
     <t>as</t>
+  </si>
+  <si>
+    <t>gridName</t>
+  </si>
+  <si>
+    <t>/gridLayout/columnPreference</t>
+  </si>
+  <si>
+    <t>DonationInformation</t>
+  </si>
+  <si>
+    <t>Body</t>
+  </si>
+  <si>
+    <t>{
+  "gridName": "DonationInformation",
+  "layout": [
+    {
+                    "columnName": "DonationID",
+                    "columnPosition": 1,
+                    "isVisible": 1,
+                    "isLocked": 1
+                },
+                {
+                    "columnName": "Assays",
+                    "columnPosition": 2,
+                    "isVisible": 0,
+                    "isLocked": 0
+                },
+                {
+                    "columnName": "Client",
+                    "columnPosition": 3,
+                    "isVisible": 0,
+                    "isLocked": 0
+                },
+                {
+                    "columnName": "FlagName",
+                    "columnPosition": 4,
+                    "isVisible": 0,
+                    "isLocked": 0
+                },
+                {
+                    "columnName": "Priority",
+                    "columnPosition": 5,
+                    "isVisible": 0,
+                    "isLocked": 0
+                },
+                {
+                    "columnName": "DateTimeOfOrderReceipt",
+                    "columnPosition": 6,
+                    "isVisible": 0,
+                    "isLocked": 0
+                },
+                {
+                    "columnName": "Site",
+                    "columnPosition": 7,
+                    "isVisible": 0,
+                    "isLocked": 0
+                },
+                {
+                    "columnName": "Status",
+                    "columnPosition": 8,
+                    "isVisible": 0,
+                    "isLocked": 0
+                }
+  ]
+}</t>
   </si>
 </sst>
 </file>
@@ -1020,7 +1090,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7341BEB-14E7-48A7-9996-091F58C4E482}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:C3"/>
     </sheetView>
   </sheetViews>
@@ -1166,4 +1236,304 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED1CEF61-CDB0-491D-A888-2414FD4A9239}">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" spans="1:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A9:E9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E34BA116-E7BC-4EB5-887F-9C2434555AE9}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" spans="1:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A9:E9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/BloodstreamAPI/testData/donationInfo.xlsx
+++ b/BloodstreamAPI/testData/donationInfo.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{5350874A-2530-42FD-8F0A-5D03FA030E9C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{9A8C8250-12CF-414C-9BE3-203589895895}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14640" windowHeight="9585" tabRatio="741" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13380" windowHeight="7020" tabRatio="741" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="donations" sheetId="2" r:id="rId1"/>
@@ -13,11 +13,9 @@
     <sheet name="groupStatusCount" sheetId="4" r:id="rId3"/>
     <sheet name="orderTests" sheetId="5" r:id="rId4"/>
     <sheet name="orderTestsStatusHistory" sheetId="6" r:id="rId5"/>
-    <sheet name="getgridLayout" sheetId="7" r:id="rId6"/>
-    <sheet name="putgridLayout" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N29"/>
+  <oleSize ref="A1:L17"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="18">
   <si>
     <t>GroupStatus</t>
   </si>
@@ -81,73 +79,6 @@
   </si>
   <si>
     <t>as</t>
-  </si>
-  <si>
-    <t>gridName</t>
-  </si>
-  <si>
-    <t>/gridLayout/columnPreference</t>
-  </si>
-  <si>
-    <t>DonationInformation</t>
-  </si>
-  <si>
-    <t>Body</t>
-  </si>
-  <si>
-    <t>{
-  "gridName": "DonationInformation",
-  "layout": [
-    {
-                    "columnName": "DonationID",
-                    "columnPosition": 1,
-                    "isVisible": 1,
-                    "isLocked": 1
-                },
-                {
-                    "columnName": "Assays",
-                    "columnPosition": 2,
-                    "isVisible": 0,
-                    "isLocked": 0
-                },
-                {
-                    "columnName": "Client",
-                    "columnPosition": 3,
-                    "isVisible": 0,
-                    "isLocked": 0
-                },
-                {
-                    "columnName": "FlagName",
-                    "columnPosition": 4,
-                    "isVisible": 0,
-                    "isLocked": 0
-                },
-                {
-                    "columnName": "Priority",
-                    "columnPosition": 5,
-                    "isVisible": 0,
-                    "isLocked": 0
-                },
-                {
-                    "columnName": "DateTimeOfOrderReceipt",
-                    "columnPosition": 6,
-                    "isVisible": 0,
-                    "isLocked": 0
-                },
-                {
-                    "columnName": "Site",
-                    "columnPosition": 7,
-                    "isVisible": 0,
-                    "isLocked": 0
-                },
-                {
-                    "columnName": "Status",
-                    "columnPosition": 8,
-                    "isVisible": 0,
-                    "isLocked": 0
-                }
-  ]
-}</t>
   </si>
 </sst>
 </file>
@@ -937,7 +868,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C811778-8EB8-4977-B591-A8DE6C0B55D6}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:C3"/>
     </sheetView>
   </sheetViews>
@@ -1236,304 +1167,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED1CEF61-CDB0-491D-A888-2414FD4A9239}">
-  <dimension ref="A1:F12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" width="30" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-    </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A9:E9"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E34BA116-E7BC-4EB5-887F-9C2434555AE9}">
-  <dimension ref="A1:F11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-    </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A9:E9"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/BloodstreamAPI/testData/donationInfo.xlsx
+++ b/BloodstreamAPI/testData/donationInfo.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{9A8C8250-12CF-414C-9BE3-203589895895}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{AE22C883-D30E-4FCF-B9D6-559DA4C3280A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13380" windowHeight="7020" tabRatio="741" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="13420" windowHeight="10490" tabRatio="741" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="donations" sheetId="2" r:id="rId1"/>
@@ -448,17 +448,17 @@
       <selection sqref="A1:XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="26.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.26953125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
@@ -467,7 +467,7 @@
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -484,7 +484,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -495,14 +495,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
@@ -511,7 +511,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>0</v>
       </c>
@@ -528,7 +528,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
@@ -539,14 +539,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
@@ -555,7 +555,7 @@
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>0</v>
       </c>
@@ -572,7 +572,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>4</v>
       </c>
@@ -602,15 +602,15 @@
       <selection activeCell="B6" sqref="B6:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.453125" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
@@ -619,7 +619,7 @@
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
     </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -636,7 +636,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -651,14 +651,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
@@ -667,7 +667,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="1:5" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>0</v>
       </c>
@@ -684,7 +684,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
@@ -699,14 +699,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
@@ -715,7 +715,7 @@
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>0</v>
       </c>
@@ -732,7 +732,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>4</v>
       </c>
@@ -743,7 +743,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
@@ -762,12 +762,12 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="20.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
@@ -776,7 +776,7 @@
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
     </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -793,7 +793,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -804,21 +804,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
@@ -827,7 +827,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="1:5" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>0</v>
       </c>
@@ -844,7 +844,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>4</v>
       </c>
@@ -869,15 +869,15 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C3"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="5" max="5" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
@@ -886,7 +886,7 @@
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
     </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -903,7 +903,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -918,21 +918,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
@@ -941,7 +941,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="1:5" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>0</v>
       </c>
@@ -958,7 +958,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>4</v>
       </c>
@@ -969,8 +969,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>8</v>
       </c>
@@ -979,7 +979,7 @@
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>0</v>
       </c>
@@ -996,7 +996,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
@@ -1025,12 +1025,12 @@
       <selection activeCell="B2" sqref="B2:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="24.28515625" customWidth="1"/>
+    <col min="5" max="5" width="24.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
@@ -1039,7 +1039,7 @@
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
     </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -1071,14 +1071,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
@@ -1087,7 +1087,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="1:5" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>0</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
@@ -1115,14 +1115,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
@@ -1131,7 +1131,7 @@
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:5" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>0</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>4</v>
       </c>

--- a/BloodstreamAPI/testData/donationInfo.xlsx
+++ b/BloodstreamAPI/testData/donationInfo.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{AE22C883-D30E-4FCF-B9D6-559DA4C3280A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{0E36A3AB-5138-43F5-B312-D9E71B4A4418}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="13420" windowHeight="10490" tabRatio="741" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13740" windowHeight="9585" tabRatio="741" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="donations" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="orderTestsStatusHistory" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:L17"/>
+  <oleSize ref="A1:L26"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="27">
   <si>
     <t>GroupStatus</t>
   </si>
@@ -79,13 +79,40 @@
   </si>
   <si>
     <t>as</t>
+  </si>
+  <si>
+    <t>all1</t>
+  </si>
+  <si>
+    <t>DEV001</t>
+  </si>
+  <si>
+    <t>DEV001-2020052</t>
+  </si>
+  <si>
+    <t>DEV001111</t>
+  </si>
+  <si>
+    <t>DEV104-2020065</t>
+  </si>
+  <si>
+    <t>DEV104</t>
+  </si>
+  <si>
+    <t>Assert404</t>
+  </si>
+  <si>
+    <t>DEVa1-2020052</t>
+  </si>
+  <si>
+    <t>DEVa1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +126,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF505050"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -135,7 +168,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -156,6 +189,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -445,29 +479,29 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD12"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.81640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.26953125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="26.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -484,7 +518,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -495,23 +529,23 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>0</v>
       </c>
@@ -528,9 +562,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -539,23 +573,23 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>0</v>
       </c>
@@ -572,7 +606,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>4</v>
       </c>
@@ -599,30 +633,28 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:C7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.453125" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.42578125" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-    </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" spans="1:5" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
       <c r="B2" s="7" t="s">
         <v>14</v>
       </c>
@@ -636,41 +668,37 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>17</v>
+    <row r="3" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:5" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:5" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
       <c r="B6" s="7" t="s">
         <v>14</v>
       </c>
@@ -684,10 +712,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
-        <v>4</v>
-      </c>
+    <row r="7" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
       <c r="B7" s="6" t="s">
         <v>16</v>
       </c>
@@ -699,26 +725,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
         <v>1</v>
       </c>
@@ -732,10 +756,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
-        <v>4</v>
-      </c>
+    <row r="11" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -743,7 +765,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
@@ -751,6 +773,7 @@
     <mergeCell ref="A9:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -762,21 +785,21 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="20.1796875" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-    </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" spans="1:5" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -793,7 +816,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -804,30 +827,30 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="1:5" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:5" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>0</v>
       </c>
@@ -844,7 +867,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>4</v>
       </c>
@@ -868,28 +891,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C811778-8EB8-4977-B591-A8DE6C0B55D6}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-    </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" spans="1:5" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
       <c r="B2" s="7" t="s">
         <v>14</v>
       </c>
@@ -903,53 +924,49 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>17</v>
+    <row r="3" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="1:5" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>2</v>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:5" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>3</v>
@@ -958,10 +975,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
-        <v>4</v>
-      </c>
+    <row r="8" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -969,25 +984,23 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
+    <row r="9" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>2</v>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>3</v>
@@ -996,12 +1009,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="D12" s="6"/>
       <c r="E12" s="4" t="s">
         <v>12</v>
@@ -1021,28 +1036,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7341BEB-14E7-48A7-9996-091F58C4E482}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="24.26953125" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-    </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" spans="1:5" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
       <c r="B2" s="7" t="s">
         <v>14</v>
       </c>
@@ -1056,46 +1069,42 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>17</v>
+    <row r="3" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:5" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>2</v>
+    <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:5" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>3</v>
@@ -1104,42 +1113,42 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
+    <row r="7" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="D7" s="6"/>
       <c r="E7" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:5" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>2</v>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:5" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>3</v>
@@ -1148,12 +1157,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
+    <row r="11" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="D11" s="6"/>
       <c r="E11" s="4" t="s">
         <v>13</v>

--- a/BloodstreamAPI/testData/donationInfo.xlsx
+++ b/BloodstreamAPI/testData/donationInfo.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{0E36A3AB-5138-43F5-B312-D9E71B4A4418}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{B1EF6C11-552D-4260-8198-05E5503F26FD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13740" windowHeight="9585" tabRatio="741" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13740" windowHeight="9585" tabRatio="741" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="donations" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="orderTestsStatusHistory" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:L26"/>
+  <oleSize ref="A1:L24"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -630,10 +630,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDA324F4-6303-45A9-B72B-667907D5EA0F}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,31 +653,29 @@
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
     </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
+    <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="B2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="7" t="s">
         <v>15</v>
       </c>
+      <c r="C2" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="D2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
+      <c r="A3" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="B3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="4" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -689,88 +687,98 @@
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:5" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="7" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="B7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="B8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="4" t="s">
+      <c r="C8" s="6"/>
+      <c r="D8" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="4"/>
-    </row>
     <row r="9" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5" t="s">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="B12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="4" t="s">
+      <c r="C12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A11:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -889,10 +897,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C811778-8EB8-4977-B591-A8DE6C0B55D6}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -910,30 +918,28 @@
       <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
+      <c r="A2" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="B2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="7" t="s">
         <v>15</v>
       </c>
+      <c r="C2" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="D2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
+      <c r="A3" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="B3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="4" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -952,81 +958,85 @@
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:5" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="1:5" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="B8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="4" t="s">
+      <c r="C8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="7" t="s">
+    <row r="10" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="B13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="8" t="s">
+      <c r="C13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="B14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="4" t="s">
+      <c r="C14" s="6"/>
+      <c r="D14" s="4" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A12:E12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1036,8 +1046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7341BEB-14E7-48A7-9996-091F58C4E482}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1055,30 +1065,28 @@
       <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
+      <c r="A2" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="B2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="7" t="s">
         <v>15</v>
       </c>
+      <c r="C2" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="D2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
+      <c r="A3" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="B3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="4" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1099,30 +1107,28 @@
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
+      <c r="A6" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="B6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="7" t="s">
         <v>15</v>
       </c>
+      <c r="C6" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="D6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
+      <c r="A7" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="B7" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="4" t="s">
+      <c r="C7" s="6"/>
+      <c r="D7" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1143,30 +1149,28 @@
       <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
+      <c r="A10" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="B10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="7" t="s">
         <v>15</v>
       </c>
+      <c r="C10" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="D10" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
+      <c r="A11" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="B11" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="4" t="s">
+      <c r="C11" s="6"/>
+      <c r="D11" s="4" t="s">
         <v>13</v>
       </c>
     </row>

--- a/BloodstreamAPI/testData/donationInfo.xlsx
+++ b/BloodstreamAPI/testData/donationInfo.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{B1EF6C11-552D-4260-8198-05E5503F26FD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{1633B870-AC19-4DA1-8DE5-9F8DC6CCF233}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13740" windowHeight="9585" tabRatio="741" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14685" windowHeight="5745" tabRatio="741" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="donations" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="orderTestsStatusHistory" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:L24"/>
+  <oleSize ref="A1:M13"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -900,7 +900,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:E12"/>
+      <selection sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1047,7 +1047,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/BloodstreamAPI/testData/donationInfo.xlsx
+++ b/BloodstreamAPI/testData/donationInfo.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{1633B870-AC19-4DA1-8DE5-9F8DC6CCF233}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{74E1BDF6-271E-4D53-8134-0735A721D931}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14685" windowHeight="5745" tabRatio="741" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13740" windowHeight="9585" tabRatio="741" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="donations" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="orderTestsStatusHistory" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:M13"/>
+  <oleSize ref="A1:L26"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="27">
   <si>
     <t>GroupStatus</t>
   </si>
@@ -168,7 +168,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -190,6 +190,10 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -493,13 +497,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -537,13 +541,13 @@
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -581,13 +585,13 @@
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -633,7 +637,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,13 +649,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -694,13 +698,13 @@
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
@@ -743,13 +747,13 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
@@ -766,8 +770,12 @@
       </c>
     </row>
     <row r="13" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
+      <c r="A13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="C13" s="6"/>
       <c r="D13" s="4" t="s">
         <v>10</v>
@@ -787,51 +795,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D58D1F-D0F2-4611-8A4A-12EDE0F51BA0}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="36.5703125" customWidth="1"/>
     <col min="5" max="5" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-    </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="4" t="s">
+      <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -849,58 +836,32 @@
       <c r="D5" s="6"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:5" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="4" t="s">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A6:E6"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C811778-8EB8-4977-B591-A8DE6C0B55D6}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -909,13 +870,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -958,85 +919,82 @@
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:5" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" spans="1:5" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4" t="s">
+      <c r="D7" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="4" t="s">
         <v>12</v>
       </c>
     </row>
+    <row r="9" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13" spans="1:5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="D12" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B13" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="4" t="s">
+      <c r="C13" s="6"/>
+      <c r="D13" s="4" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A11:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1046,23 +1004,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7341BEB-14E7-48A7-9996-091F58C4E482}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" customWidth="1"/>
     <col min="5" max="5" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:5" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -1097,14 +1056,13 @@
       <c r="D4" s="6"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
     </row>
     <row r="6" spans="1:5" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -1137,16 +1095,14 @@
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+    </row>
+    <row r="9" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
     </row>
     <row r="10" spans="1:5" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
@@ -1176,9 +1132,9 @@
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A9:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BloodstreamAPI/testData/donationInfo.xlsx
+++ b/BloodstreamAPI/testData/donationInfo.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{74E1BDF6-271E-4D53-8134-0735A721D931}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{95A3F7CE-D2A9-4F30-A33F-EA188F1ED23A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13740" windowHeight="9585" tabRatio="741" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10710" windowHeight="6105" tabRatio="741" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="donations" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="orderTestsStatusHistory" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:L26"/>
+  <oleSize ref="A1:F15"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="27">
   <si>
     <t>GroupStatus</t>
   </si>
@@ -482,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC16E1A-EBE8-4FD7-9522-847FD03243A9}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,8 +509,8 @@
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>1</v>
+      <c r="B2" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>2</v>
@@ -526,7 +526,9 @@
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6"/>
+      <c r="B3" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="4" t="s">
@@ -860,8 +862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C811778-8EB8-4977-B591-A8DE6C0B55D6}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1004,8 +1006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7341BEB-14E7-48A7-9996-091F58C4E482}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/BloodstreamAPI/testData/donationInfo.xlsx
+++ b/BloodstreamAPI/testData/donationInfo.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{95A3F7CE-D2A9-4F30-A33F-EA188F1ED23A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B08E83-6237-46DF-B625-3F888085BF6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10710" windowHeight="6105" tabRatio="741" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="741" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="donations" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,6 @@
     <sheet name="orderTestsStatusHistory" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:F15"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="32">
   <si>
     <t>GroupStatus</t>
   </si>
@@ -106,6 +105,21 @@
   </si>
   <si>
     <t>DEVa1</t>
+  </si>
+  <si>
+    <t>FlagName:DESC</t>
+  </si>
+  <si>
+    <t>ABV9005</t>
+  </si>
+  <si>
+    <t>ABV9005-2020121</t>
+  </si>
+  <si>
+    <t>UNT01-2020122</t>
+  </si>
+  <si>
+    <t>UNT01</t>
   </si>
 </sst>
 </file>
@@ -482,16 +496,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC16E1A-EBE8-4FD7-9522-847FD03243A9}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="27" style="1" customWidth="1"/>
     <col min="5" max="5" width="27.28515625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -505,20 +518,17 @@
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>14</v>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -526,12 +536,11 @@
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="4" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -639,13 +648,14 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
     <col min="5" max="5" width="40.42578125" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
   </cols>
@@ -675,10 +685,10 @@
     </row>
     <row r="3" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="4" t="s">
@@ -862,12 +872,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C811778-8EB8-4977-B591-A8DE6C0B55D6}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
   </cols>
   <sheetData>
@@ -896,10 +908,10 @@
     </row>
     <row r="3" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="4" t="s">
@@ -945,10 +957,10 @@
     </row>
     <row r="8" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="4" t="s">
@@ -1007,7 +1019,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1041,10 +1053,10 @@
     </row>
     <row r="3" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="4" t="s">

--- a/BloodstreamAPI/testData/donationInfo.xlsx
+++ b/BloodstreamAPI/testData/donationInfo.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B08E83-6237-46DF-B625-3F888085BF6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D67924-3562-4488-82BF-9782F2EA3371}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="741" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="741" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="donations" sheetId="2" r:id="rId1"/>
@@ -110,16 +110,16 @@
     <t>FlagName:DESC</t>
   </si>
   <si>
-    <t>ABV9005</t>
-  </si>
-  <si>
-    <t>ABV9005-2020121</t>
-  </si>
-  <si>
     <t>UNT01-2020122</t>
   </si>
   <si>
     <t>UNT01</t>
+  </si>
+  <si>
+    <t>SDK11006</t>
+  </si>
+  <si>
+    <t>SDK11006-2020190</t>
   </si>
 </sst>
 </file>
@@ -497,7 +497,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,14 +648,14 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" customWidth="1"/>
     <col min="5" max="5" width="40.42578125" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
   </cols>
@@ -685,10 +685,10 @@
     </row>
     <row r="3" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>31</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>30</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="4" t="s">
@@ -872,8 +872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C811778-8EB8-4977-B591-A8DE6C0B55D6}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -908,10 +908,10 @@
     </row>
     <row r="3" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>31</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>30</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="4" t="s">
@@ -957,10 +957,10 @@
     </row>
     <row r="8" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="4" t="s">
@@ -1018,8 +1018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7341BEB-14E7-48A7-9996-091F58C4E482}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1053,10 +1053,10 @@
     </row>
     <row r="3" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="4" t="s">

--- a/BloodstreamAPI/testData/donationInfo.xlsx
+++ b/BloodstreamAPI/testData/donationInfo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D67924-3562-4488-82BF-9782F2EA3371}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C86951DF-90D4-470C-9063-B637D92723C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="741" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -116,10 +116,10 @@
     <t>UNT01</t>
   </si>
   <si>
-    <t>SDK11006</t>
-  </si>
-  <si>
-    <t>SDK11006-2020190</t>
+    <t>CDF33-20200521</t>
+  </si>
+  <si>
+    <t>CDF33</t>
   </si>
 </sst>
 </file>
@@ -648,7 +648,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,10 +685,10 @@
     </row>
     <row r="3" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>31</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="4" t="s">
@@ -873,7 +873,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -908,10 +908,10 @@
     </row>
     <row r="3" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>31</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="4" t="s">
@@ -1019,7 +1019,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1053,10 +1053,10 @@
     </row>
     <row r="3" spans="1:5" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>31</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="4" t="s">
